--- a/data/trans_dic/P19C10_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C10_2023-Estudios-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -814,7 +814,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P19C10_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C10_2023-Estudios-trans_dic.xlsx
@@ -582,10 +582,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.007550743716231406</v>
+        <v>0.00820292926054495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004573264869178043</v>
+        <v>0.004685787493143557</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.02078567695296537</v>
+        <v>0.02105854901481089</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01263803037184926</v>
+        <v>0.01237573725284989</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.003919610860319962</v>
+        <v>0.003919610860319961</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.003278499323751977</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001612103149080258</v>
+        <v>0.001654246169820201</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001627049476305348</v>
+        <v>0.001621823887055339</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00188336327200203</v>
+        <v>0.002035748901374776</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.00745634274036832</v>
+        <v>0.007840406469474684</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.006584423602994448</v>
+        <v>0.006842435642923965</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.005664757748390371</v>
+        <v>0.006017221868609415</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>0.003336541958271718</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.007696656654583787</v>
+        <v>0.007696656654583786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.005551101101407204</v>
+        <v>0.005551101101407203</v>
       </c>
     </row>
     <row r="11">
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003094798182774519</v>
+        <v>0.003320955492475351</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002566980384093149</v>
+        <v>0.002660480156052432</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01315125439907218</v>
+        <v>0.01390512685815004</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01534129403294279</v>
+        <v>0.01646898461381394</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01147489022510577</v>
+        <v>0.01182359004178479</v>
       </c>
     </row>
     <row r="13">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.003176715411345633</v>
+        <v>0.003176715411345634</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.006349817493051259</v>
+        <v>0.00634981749305126</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.004816262905184876</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001517340647981456</v>
+        <v>0.001554267727748402</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004231496671725478</v>
+        <v>0.004419973580584682</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00343142657911645</v>
+        <v>0.003426516765519655</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.00612889268988883</v>
+        <v>0.006091841588773054</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009055323983941044</v>
+        <v>0.008972758872687274</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.00689921509210563</v>
+        <v>0.006605823043822153</v>
       </c>
     </row>
     <row r="16">
@@ -907,10 +907,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>5924</v>
+        <v>6436</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6045</v>
+        <v>6194</v>
       </c>
     </row>
     <row r="7">
@@ -922,10 +922,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>16308</v>
+        <v>16522</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16706</v>
+        <v>16359</v>
       </c>
     </row>
     <row r="8">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3460</v>
+        <v>3551</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3434</v>
+        <v>3423</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8018</v>
+        <v>8666</v>
       </c>
     </row>
     <row r="11">
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16005</v>
+        <v>16829</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13897</v>
+        <v>14442</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24115</v>
+        <v>25616</v>
       </c>
     </row>
     <row r="12">
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2242</v>
+        <v>2406</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3661</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="15">
@@ -1063,13 +1063,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9230</v>
+        <v>9759</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11113</v>
+        <v>11930</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16366</v>
+        <v>16863</v>
       </c>
     </row>
     <row r="16">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5137</v>
+        <v>5262</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15316</v>
+        <v>15999</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24038</v>
+        <v>24003</v>
       </c>
     </row>
     <row r="19">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20750</v>
+        <v>20625</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32777</v>
+        <v>32478</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48330</v>
+        <v>46275</v>
       </c>
     </row>
     <row r="20">
